--- a/GJ2N7R_0405/utemezes.xlsx
+++ b/GJ2N7R_0405/utemezes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gborg\Desktop\Egyetem 2021-22 2\OS_bead9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2229211-3790-441A-AEDA-471F642D1EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A7D61-14A2-4272-90F8-68143E47B494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E050CFF6-69D7-41BA-A2FA-37CAB29AD3EB}"/>
   </bookViews>
@@ -372,6 +372,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -380,9 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6873F7-FC34-4E32-850E-11FE8AAB8152}">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,54 +853,54 @@
       <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24">
         <f>(C4+D4+E4+F4)/(C4+D4+E4+F4+0.4)*100</f>
         <v>98.901098901098905</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24">
         <f>(C8+D8+E8+F8)/4</f>
         <v>28.25</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24">
         <f>(C7+D7+E7+F7)/4</f>
         <v>19.25</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24">
         <f>(C9+D9+E9+F9)/4</f>
         <v>19.25</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1044,53 +1044,53 @@
       <c r="B29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23">
+      <c r="C30" s="23"/>
+      <c r="D30" s="24">
         <f>(C22+D22+F22+E22)/(C22+D22+E22+F22+0.4)*100</f>
         <v>98.901098901098905</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23">
+      <c r="C31" s="23"/>
+      <c r="D31" s="24">
         <f>(C26+D26+E26+F26)/4</f>
         <v>27.5</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23">
+      <c r="C32" s="23"/>
+      <c r="D32" s="24">
         <f>(C25+D25+E25+F25)/4</f>
         <v>18.5</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23">
+      <c r="C33" s="23"/>
+      <c r="D33" s="24">
         <f>(C27+D27+E27+F27)/4</f>
         <v>18.5</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1234,71 +1234,55 @@
       <c r="B46" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23">
+      <c r="C47" s="23"/>
+      <c r="D47" s="24">
         <f>(24+3+6+3)/(24+3+6+3+0.4)*100</f>
         <v>98.901098901098905</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23">
+      <c r="C48" s="23"/>
+      <c r="D48" s="24">
         <f>(C43+D43+E43+F43)/4</f>
         <v>18.5</v>
       </c>
-      <c r="E48" s="24"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23">
+      <c r="C49" s="23"/>
+      <c r="D49" s="24">
         <f>(12+4+12+10)/4</f>
         <v>9.5</v>
       </c>
-      <c r="E49" s="24"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23">
+      <c r="C50" s="23"/>
+      <c r="D50" s="24">
         <v>9.5</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="B50:C50"/>
@@ -1310,6 +1294,22 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
